--- a/data/trans_bre/P25A_11_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25A_11_R2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,43</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-18,82%</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>392,0%</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>67,65%</t>
+          <t>-11,2%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,22%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-0,5%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>426,27%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>198,49%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>114,87%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 2,8</t>
+          <t>-3,76; 2,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 5,61</t>
+          <t>-5,45; 4,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 3,55</t>
+          <t>-5,49; 3,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>1,93; 13,51</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-0,52; 8,79</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-2,56; 11,05</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-0,02; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-58,96; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-56,95; 945,93</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-0,7</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2,1</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-0,34</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>-2,15</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>-0,59</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,2</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,09</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-25,1</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-25,06%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>113,63%</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-4,63%</t>
+          <t>-29,03%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-43,33%</t>
+          <t>105,1%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-15,25%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-45,59%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-8,92%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>156,95%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 2,32</t>
+          <t>-4,15; 2,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 5,44</t>
+          <t>-1,38; 5,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 2,45</t>
+          <t>-2,95; 2,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-63,48; 19,57</t>
+          <t>-7,86; 1,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 267,9</t>
+          <t>-6,53; 4,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,33; 852,58</t>
+          <t>0,22; 9,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-77,51; 373,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-85,93; 71,59</t>
+          <t>-50,79; 609,71</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-82,24; 363,97</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-88,72; 133,56</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-63,5; 173,27</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-7,77; 991,72</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,03</t>
+          <t>6,1</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-19,24</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>76,65%</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>218,0%</t>
+          <t>4,92</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1002,03%</t>
+          <t>22,69%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-25,92%</t>
+          <t>228,68%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>983,13%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>71,61%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>46,49%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>207,23%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 9,28</t>
+          <t>-2,46; 3,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 6,49</t>
+          <t>1,05; 6,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,52; 8,7</t>
+          <t>3,66; 8,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-46,76; 15,14</t>
+          <t>-1,03; 7,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-29,35; 469,57</t>
+          <t>-2,44; 7,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,09; 899,4</t>
+          <t>1,4; 8,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>196,99; —</t>
+          <t>-54,25; 199,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-52,75; 30,51</t>
+          <t>8,2; 915,1</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>200,87; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-26,02; 332,8</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-29,61; 213,05</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>25,61; 848,01</t>
         </is>
       </c>
     </row>
@@ -920,12 +1072,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>3,73</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,27 +1087,47 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>7,99</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>118,73%</t>
+          <t>5,07</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>98,74%</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>35,26%</t>
+          <t>112,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>96,7%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>34,21%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>201,17%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>73,43%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>92,13%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 7,08</t>
+          <t>0,01; 7,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,12; 6,62</t>
+          <t>-0,02; 6,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 5,55</t>
+          <t>-2,11; 5,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,22; 34,28</t>
+          <t>3,58; 13,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 383,33</t>
+          <t>0,25; 10,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 321,62</t>
+          <t>0,68; 9,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-24,33; 153,76</t>
+          <t>-5,04; 389,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-29,09; 101,62</t>
+          <t>-10,77; 331,43</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-30,16; 143,48</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>52,44; 676,22</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-0,02; 264,13</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>2,0; 271,29</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,91</t>
+          <t>7,07</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,16</t>
+          <t>7,96</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,77</t>
+          <t>7,88</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>54,96%</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>280,89%</t>
+          <t>10,98</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>231,13%</t>
+          <t>57,59%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>278,24%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>219,6%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>83,58%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>15,19%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>283,13%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 6,26</t>
+          <t>-1,66; 6,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,99; 11,32</t>
+          <t>3,07; 11,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,17; 12,86</t>
+          <t>3,86; 12,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,95; 26,19</t>
+          <t>1,4; 14,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-36,63; 261,59</t>
+          <t>-5,27; 8,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>51,01; 876,39</t>
+          <t>5,09; 16,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>76,46; 636,0</t>
+          <t>-33,81; 306,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 44,47</t>
+          <t>61,36; 811,26</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>61,75; 583,91</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>6,4; 226,36</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-32,5; 90,94</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>71,55; 754,16</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,49</t>
+          <t>-3,27</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,78</t>
+          <t>6,13</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-24,22</t>
+          <t>7,56</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>60,59%</t>
+          <t>12,81</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-35,96%</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>107,58%</t>
+          <t>62,7%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-34,55%</t>
+          <t>-28,9%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>145,38%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>355,01%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>381,64%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>135,33%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 9,48</t>
+          <t>-5,17; 10,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,72; 2,32</t>
+          <t>-13,74; 3,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 10,71</t>
+          <t>0,54; 12,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-63,85; 33,57</t>
+          <t>2,34; 14,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-57,29; 433,67</t>
+          <t>6,32; 19,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-73,9; 39,88</t>
+          <t>-1,09; 10,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-28,59; 495,25</t>
+          <t>-66,12; 431,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-65,23; 127,65</t>
+          <t>-68,59; 61,33</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-10,99; 599,49</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>40,74; 1980,27</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>85,81; 1301,09</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-41,74; 897,38</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1492,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1230,32 +1502,52 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-7,83</t>
+          <t>5,34</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>62,51%</t>
+          <t>4,69</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>68,82%</t>
+          <t>5,6</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>133,78%</t>
+          <t>53,64%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-11,27%</t>
+          <t>67,24%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>125,97%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>123,1%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>75,1%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>154,81%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,33; 4,19</t>
+          <t>0,0; 3,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,4; 4,3</t>
+          <t>0,42; 4,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,19; 5,44</t>
+          <t>2,31; 5,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-21,8; 6,24</t>
+          <t>3,19; 7,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,11; 153,72</t>
+          <t>2,22; 7,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,21; 159,78</t>
+          <t>3,45; 7,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>57,66; 243,44</t>
+          <t>-2,72; 135,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-28,03; 9,96</t>
+          <t>6,06; 156,42</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>56,56; 251,05</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>57,42; 229,87</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>29,24; 144,98</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>72,17; 277,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
